--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 Dice.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 Dice.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2475,12 +2475,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3199,12 +3199,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3919,12 +3919,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5187,12 +5187,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5259,12 +5259,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5367,12 +5367,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5439,12 +5439,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7427,12 +7427,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7535,12 +7535,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7791,12 +7791,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7827,12 +7827,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8007,12 +8007,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8439,12 +8439,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8475,12 +8475,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8907,12 +8907,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8943,12 +8943,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9487,12 +9487,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9739,12 +9739,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9883,12 +9883,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9919,12 +9919,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10135,12 +10135,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10243,12 +10243,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10355,12 +10355,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10679,12 +10679,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11003,12 +11003,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11759,12 +11759,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11943,12 +11943,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12015,12 +12015,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12303,12 +12303,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12951,12 +12951,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13095,12 +13095,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13383,12 +13383,12 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13599,12 +13599,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14539,12 +14539,12 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14575,12 +14575,12 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15119,12 +15119,12 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15515,12 +15515,12 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15695,12 +15695,12 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15839,12 +15839,12 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16055,12 +16055,12 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16455,12 +16455,12 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16563,12 +16563,12 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16851,12 +16851,12 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17283,12 +17283,12 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17391,12 +17391,12 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17427,12 +17427,12 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17535,12 +17535,12 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19055,12 +19055,12 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19275,12 +19275,12 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19419,12 +19419,12 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20355,12 +20355,12 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20827,12 +20827,12 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21223,12 +21223,12 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21367,12 +21367,12 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21619,12 +21619,12 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21943,12 +21943,12 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22055,12 +22055,12 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22091,12 +22091,12 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22955,12 +22955,12 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24183,12 +24183,12 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24651,12 +24651,12 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25083,12 +25083,12 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25267,12 +25267,12 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25483,12 +25483,12 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25519,12 +25519,12 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25663,12 +25663,12 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -25843,12 +25843,12 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26023,12 +26023,12 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26095,12 +26095,12 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26203,12 +26203,12 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26419,12 +26419,12 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26455,12 +26455,12 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26527,12 +26527,12 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26635,12 +26635,12 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26707,12 +26707,12 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26855,12 +26855,12 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26891,12 +26891,12 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26999,12 +26999,12 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27431,12 +27431,12 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27467,12 +27467,12 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27683,12 +27683,12 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27755,12 +27755,12 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27863,12 +27863,12 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27935,12 +27935,12 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27971,12 +27971,12 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28079,12 +28079,12 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28115,12 +28115,12 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28151,12 +28151,12 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28187,12 +28187,12 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28223,12 +28223,12 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28299,12 +28299,12 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28335,12 +28335,12 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28479,12 +28479,12 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28659,12 +28659,12 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28767,12 +28767,12 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28839,12 +28839,12 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28911,12 +28911,12 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29091,12 +29091,12 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29343,12 +29343,12 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29595,12 +29595,12 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29743,12 +29743,12 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29779,12 +29779,12 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30103,12 +30103,12 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30139,12 +30139,12 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30211,12 +30211,12 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30355,12 +30355,12 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30607,12 +30607,12 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30643,12 +30643,12 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30679,12 +30679,12 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30823,12 +30823,12 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30859,12 +30859,12 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30895,12 +30895,12 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31003,12 +31003,12 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31039,12 +31039,12 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31075,12 +31075,12 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31111,12 +31111,12 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31147,12 +31147,12 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31183,12 +31183,12 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31255,12 +31255,12 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31511,12 +31511,12 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31619,12 +31619,12 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31691,12 +31691,12 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31835,12 +31835,12 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31907,12 +31907,12 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32015,12 +32015,12 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32159,12 +32159,12 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32519,12 +32519,12 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32555,12 +32555,12 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32595,12 +32595,12 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32667,12 +32667,12 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32703,12 +32703,12 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32847,12 +32847,12 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32883,12 +32883,12 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33171,12 +33171,12 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33675,12 +33675,12 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34075,12 +34075,12 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35699,12 +35699,12 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35771,12 +35771,12 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35879,12 +35879,12 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -36167,12 +36167,12 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36203,12 +36203,12 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36927,12 +36927,12 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37287,12 +37287,12 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1020" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37647,12 +37647,12 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38079,12 +38079,12 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1042" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38259,12 +38259,12 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38585,12 +38585,12 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -38801,12 +38801,12 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39305,12 +39305,12 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1076" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39449,12 +39449,12 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1080" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39809,12 +39809,12 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1090" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39845,12 +39845,12 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1091" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39917,12 +39917,12 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1093" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39953,12 +39953,12 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1094" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39989,12 +39989,12 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -40425,12 +40425,12 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1107" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41217,12 +41217,12 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41253,12 +41253,12 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -41433,12 +41433,12 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41613,12 +41613,12 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1140" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41685,12 +41685,12 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41725,12 +41725,12 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1143" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41761,12 +41761,12 @@
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1144" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -41797,12 +41797,12 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1145" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42409,12 +42409,12 @@
       </c>
       <c r="I1162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42697,12 +42697,12 @@
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42733,12 +42733,12 @@
       </c>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42769,12 +42769,12 @@
       </c>
       <c r="I1172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42805,12 +42805,12 @@
       </c>
       <c r="I1173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42841,12 +42841,12 @@
       </c>
       <c r="I1174" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1174" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42877,12 +42877,12 @@
       </c>
       <c r="I1175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43021,12 +43021,12 @@
       </c>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1179" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43309,12 +43309,12 @@
       </c>
       <c r="I1187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -43525,12 +43525,12 @@
       </c>
       <c r="I1193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -43561,12 +43561,12 @@
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1194" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -43669,12 +43669,12 @@
       </c>
       <c r="I1197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -43709,12 +43709,12 @@
       </c>
       <c r="I1198" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1198" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43745,12 +43745,12 @@
       </c>
       <c r="I1199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -44753,12 +44753,12 @@
       </c>
       <c r="I1227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -44933,12 +44933,12 @@
       </c>
       <c r="I1232" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1232" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45550,12 +45550,12 @@
       </c>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -45586,12 +45586,12 @@
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1250" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -45622,12 +45622,12 @@
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1251" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -45802,12 +45802,12 @@
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1256" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45910,12 +45910,12 @@
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -46234,12 +46234,12 @@
       </c>
       <c r="I1268" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1268" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -46270,12 +46270,12 @@
       </c>
       <c r="I1269" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1269" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46414,12 +46414,12 @@
       </c>
       <c r="I1273" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1273" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -46922,12 +46922,12 @@
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -47286,12 +47286,12 @@
       </c>
       <c r="I1297" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1297" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -47430,12 +47430,12 @@
       </c>
       <c r="I1301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -47610,12 +47610,12 @@
       </c>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -47754,12 +47754,12 @@
       </c>
       <c r="I1310" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1310" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -48042,12 +48042,12 @@
       </c>
       <c r="I1318" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1318" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -48150,12 +48150,12 @@
       </c>
       <c r="I1321" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1321" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -48186,12 +48186,12 @@
       </c>
       <c r="I1322" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1322" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49166,12 +49166,12 @@
       <c r="H1349" t="inlineStr"/>
       <c r="I1349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -49202,12 +49202,12 @@
       </c>
       <c r="I1350" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1350" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -49454,12 +49454,12 @@
       </c>
       <c r="I1357" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1357" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49670,12 +49670,12 @@
       </c>
       <c r="I1363" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1363" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49926,12 +49926,12 @@
       </c>
       <c r="I1370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -50178,12 +50178,12 @@
       </c>
       <c r="I1377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -50286,12 +50286,12 @@
       </c>
       <c r="I1380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -50430,12 +50430,12 @@
       </c>
       <c r="I1384" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1384" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -50466,12 +50466,12 @@
       </c>
       <c r="I1385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50502,12 +50502,12 @@
       </c>
       <c r="I1386" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1386" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50898,12 +50898,12 @@
       </c>
       <c r="I1397" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1397" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -50934,12 +50934,12 @@
       </c>
       <c r="I1398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -51042,12 +51042,12 @@
       </c>
       <c r="I1401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -51078,12 +51078,12 @@
       </c>
       <c r="I1402" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1402" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -51438,12 +51438,12 @@
       </c>
       <c r="I1412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -51730,12 +51730,12 @@
       </c>
       <c r="I1420" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1420" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52270,12 +52270,12 @@
       </c>
       <c r="I1435" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1435" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -52342,12 +52342,12 @@
       </c>
       <c r="I1437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -52450,12 +52450,12 @@
       </c>
       <c r="I1440" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1440" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52558,12 +52558,12 @@
       </c>
       <c r="I1443" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1443" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52630,12 +52630,12 @@
       </c>
       <c r="I1445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -52918,12 +52918,12 @@
       </c>
       <c r="I1453" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1453" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -53134,12 +53134,12 @@
       </c>
       <c r="I1459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -53170,12 +53170,12 @@
       </c>
       <c r="I1460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -53498,12 +53498,12 @@
       </c>
       <c r="I1469" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1469" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -53570,12 +53570,12 @@
       </c>
       <c r="I1471" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1471" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -53678,12 +53678,12 @@
       </c>
       <c r="I1474" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1474" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -54506,12 +54506,12 @@
       </c>
       <c r="I1497" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1497" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -55050,12 +55050,12 @@
       </c>
       <c r="I1512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -56502,12 +56502,12 @@
       <c r="H1552" t="inlineStr"/>
       <c r="I1552" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1552" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -56646,12 +56646,12 @@
       <c r="H1556" t="inlineStr"/>
       <c r="I1556" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1556" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -56790,12 +56790,12 @@
       <c r="H1560" t="inlineStr"/>
       <c r="I1560" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1560" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -56898,12 +56898,12 @@
       <c r="H1563" t="inlineStr"/>
       <c r="I1563" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1563" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -57078,12 +57078,12 @@
       <c r="H1568" t="inlineStr"/>
       <c r="I1568" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1568" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -57114,12 +57114,12 @@
       <c r="H1569" t="inlineStr"/>
       <c r="I1569" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1569" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -57438,12 +57438,12 @@
       <c r="H1578" t="inlineStr"/>
       <c r="I1578" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1578" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -57798,12 +57798,12 @@
       </c>
       <c r="I1588" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1588" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -58558,12 +58558,12 @@
       </c>
       <c r="I1609" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1609" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -59206,12 +59206,12 @@
       <c r="H1627" t="inlineStr"/>
       <c r="I1627" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1627" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -59350,12 +59350,12 @@
       <c r="H1631" t="inlineStr"/>
       <c r="I1631" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1631" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -59678,12 +59678,12 @@
       <c r="H1640" t="inlineStr"/>
       <c r="I1640" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1640" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -59966,12 +59966,12 @@
       <c r="H1648" t="inlineStr"/>
       <c r="I1648" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1648" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -60002,12 +60002,12 @@
       <c r="H1649" t="inlineStr"/>
       <c r="I1649" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1649" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -60474,12 +60474,12 @@
       <c r="H1662" t="inlineStr"/>
       <c r="I1662" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1662" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -60770,12 +60770,12 @@
       </c>
       <c r="I1670" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1670" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -61170,12 +61170,12 @@
       <c r="H1681" t="inlineStr"/>
       <c r="I1681" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1681" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -61206,12 +61206,12 @@
       <c r="H1682" t="inlineStr"/>
       <c r="I1682" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1682" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -61566,12 +61566,12 @@
       </c>
       <c r="I1692" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1692" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -61746,12 +61746,12 @@
       <c r="H1697" t="inlineStr"/>
       <c r="I1697" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1697" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -62182,12 +62182,12 @@
       </c>
       <c r="I1709" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1709" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -62398,12 +62398,12 @@
       </c>
       <c r="I1715" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1715" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -62866,12 +62866,12 @@
       </c>
       <c r="I1728" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1728" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -63734,12 +63734,12 @@
       </c>
       <c r="I1752" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1752" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -63806,12 +63806,12 @@
       <c r="H1754" t="inlineStr"/>
       <c r="I1754" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1754" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -64130,12 +64130,12 @@
       </c>
       <c r="I1763" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1763" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -64238,12 +64238,12 @@
       </c>
       <c r="I1766" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1766" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -64310,12 +64310,12 @@
       </c>
       <c r="I1768" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1768" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -65898,12 +65898,12 @@
       </c>
       <c r="I1812" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1812" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -66550,12 +66550,12 @@
       <c r="H1830" t="inlineStr"/>
       <c r="I1830" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1830" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -66586,12 +66586,12 @@
       <c r="H1831" t="inlineStr"/>
       <c r="I1831" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1831" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -66950,12 +66950,12 @@
       <c r="H1841" t="inlineStr"/>
       <c r="I1841" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1841" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -67166,12 +67166,12 @@
       </c>
       <c r="I1847" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1847" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -67926,12 +67926,12 @@
       </c>
       <c r="I1868" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1868" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -68214,12 +68214,12 @@
       </c>
       <c r="I1876" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1876" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -68898,12 +68898,12 @@
       </c>
       <c r="I1895" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1895" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -69118,12 +69118,12 @@
       </c>
       <c r="I1901" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1901" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -69154,12 +69154,12 @@
       </c>
       <c r="I1902" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1902" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -69334,12 +69334,12 @@
       </c>
       <c r="I1907" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1907" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -69626,12 +69626,12 @@
       <c r="H1915" t="inlineStr"/>
       <c r="I1915" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1915" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -70098,12 +70098,12 @@
       <c r="H1928" t="inlineStr"/>
       <c r="I1928" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1928" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -70242,12 +70242,12 @@
       </c>
       <c r="I1932" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J1932" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -70930,12 +70930,12 @@
       </c>
       <c r="I1951" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1951" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -71074,12 +71074,12 @@
       <c r="H1955" t="inlineStr"/>
       <c r="I1955" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J1955" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -71798,12 +71798,12 @@
       </c>
       <c r="I1975" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1975" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -71978,12 +71978,12 @@
       <c r="H1980" t="inlineStr"/>
       <c r="I1980" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1980" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -72158,12 +72158,12 @@
       </c>
       <c r="I1985" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1985" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -72194,12 +72194,12 @@
       </c>
       <c r="I1986" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1986" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -72338,12 +72338,12 @@
       </c>
       <c r="I1990" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1990" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -72374,12 +72374,12 @@
       </c>
       <c r="I1991" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1991" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -73386,12 +73386,12 @@
       <c r="H2019" t="inlineStr"/>
       <c r="I2019" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2019" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -73422,12 +73422,12 @@
       </c>
       <c r="I2020" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2020" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -73566,12 +73566,12 @@
       </c>
       <c r="I2024" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2024" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -73602,12 +73602,12 @@
       <c r="H2025" t="inlineStr"/>
       <c r="I2025" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2025" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -73710,12 +73710,12 @@
       </c>
       <c r="I2028" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2028" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -73890,12 +73890,12 @@
       </c>
       <c r="I2033" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J2033" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -73926,12 +73926,12 @@
       </c>
       <c r="I2034" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2034" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -74038,12 +74038,12 @@
       </c>
       <c r="I2037" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2037" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -74110,12 +74110,12 @@
       </c>
       <c r="I2039" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2039" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -74218,12 +74218,12 @@
       </c>
       <c r="I2042" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2042" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -74254,12 +74254,12 @@
       </c>
       <c r="I2043" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2043" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -74506,12 +74506,12 @@
       </c>
       <c r="I2050" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J2050" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -74614,12 +74614,12 @@
       </c>
       <c r="I2053" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J2053" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -75010,12 +75010,12 @@
       </c>
       <c r="I2064" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2064" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -75082,12 +75082,12 @@
       </c>
       <c r="I2066" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J2066" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -75626,12 +75626,12 @@
       <c r="H2081" t="inlineStr"/>
       <c r="I2081" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2081" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -75846,12 +75846,12 @@
       <c r="H2087" t="inlineStr"/>
       <c r="I2087" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2087" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -75954,12 +75954,12 @@
       <c r="H2090" t="inlineStr"/>
       <c r="I2090" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2090" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -75990,12 +75990,12 @@
       <c r="H2091" t="inlineStr"/>
       <c r="I2091" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J2091" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -76710,12 +76710,12 @@
       </c>
       <c r="I2111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J2111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -76894,12 +76894,12 @@
       </c>
       <c r="I2116" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2116" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -77434,12 +77434,12 @@
       </c>
       <c r="I2131" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2131" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -77650,12 +77650,12 @@
       </c>
       <c r="I2137" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2137" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -78050,12 +78050,12 @@
       </c>
       <c r="I2148" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2148" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -78158,12 +78158,12 @@
       </c>
       <c r="I2151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J2151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -78230,12 +78230,12 @@
       <c r="H2153" t="inlineStr"/>
       <c r="I2153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -78374,12 +78374,12 @@
       </c>
       <c r="I2157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -78594,12 +78594,12 @@
       <c r="H2163" t="inlineStr"/>
       <c r="I2163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -78634,12 +78634,12 @@
       </c>
       <c r="I2164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -79934,12 +79934,12 @@
       </c>
       <c r="I2200" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2200" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -80114,12 +80114,12 @@
       <c r="H2205" t="inlineStr"/>
       <c r="I2205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -80438,12 +80438,12 @@
       <c r="H2214" t="inlineStr"/>
       <c r="I2214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -80690,12 +80690,12 @@
       </c>
       <c r="I2221" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2221" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -80910,12 +80910,12 @@
       <c r="H2227" t="inlineStr"/>
       <c r="I2227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -82026,12 +82026,12 @@
       </c>
       <c r="I2258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -82426,12 +82426,12 @@
       <c r="H2269" t="inlineStr"/>
       <c r="I2269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -82498,12 +82498,12 @@
       <c r="H2271" t="inlineStr"/>
       <c r="I2271" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2271" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -82606,12 +82606,12 @@
       <c r="H2274" t="inlineStr"/>
       <c r="I2274" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J2274" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -82930,12 +82930,12 @@
       </c>
       <c r="I2283" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J2283" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -83290,12 +83290,12 @@
       </c>
       <c r="I2293" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2293" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -83546,12 +83546,12 @@
       </c>
       <c r="I2300" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2300" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -83834,12 +83834,12 @@
       </c>
       <c r="I2308" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2308" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -84158,12 +84158,12 @@
       </c>
       <c r="I2317" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2317" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -84374,12 +84374,12 @@
       </c>
       <c r="I2323" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2323" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -84446,12 +84446,12 @@
       </c>
       <c r="I2325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -84558,12 +84558,12 @@
       </c>
       <c r="I2328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J2328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -84630,12 +84630,12 @@
       <c r="H2330" t="inlineStr"/>
       <c r="I2330" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2330" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -84702,12 +84702,12 @@
       </c>
       <c r="I2332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -84774,12 +84774,12 @@
       </c>
       <c r="I2334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -85386,12 +85386,12 @@
       <c r="H2351" t="inlineStr"/>
       <c r="I2351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J2351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -85602,12 +85602,12 @@
       </c>
       <c r="I2357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -85782,12 +85782,12 @@
       <c r="H2362" t="inlineStr"/>
       <c r="I2362" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2362" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
